--- a/data/pca/factorExposure/factorExposure_2012-09-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002516431626244085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001942295923768268</v>
+      </c>
+      <c r="C2">
+        <v>0.0291077702736434</v>
+      </c>
+      <c r="D2">
+        <v>0.004855292574373856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1.010533154410285e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006388867169643997</v>
+      </c>
+      <c r="C4">
+        <v>0.08380790277972237</v>
+      </c>
+      <c r="D4">
+        <v>0.06851618386279268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005442778954569756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01450137504702222</v>
+      </c>
+      <c r="C6">
+        <v>0.1188822508665295</v>
+      </c>
+      <c r="D6">
+        <v>0.02122524928226817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-1.136342384965555e-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004106669141613177</v>
+      </c>
+      <c r="C7">
+        <v>0.05911744650675708</v>
+      </c>
+      <c r="D7">
+        <v>0.03245196207307097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001007998694322729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005375702622054748</v>
+      </c>
+      <c r="C8">
+        <v>0.03564961429807201</v>
+      </c>
+      <c r="D8">
+        <v>0.03947563223321651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0006428130138776086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005308014110964631</v>
+      </c>
+      <c r="C9">
+        <v>0.07193545789133583</v>
+      </c>
+      <c r="D9">
+        <v>0.07432794459683466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001320481822661211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002659168986786777</v>
+      </c>
+      <c r="C10">
+        <v>0.05169056519372364</v>
+      </c>
+      <c r="D10">
+        <v>-0.1868556935197686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0009867312259922963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005753908530318533</v>
+      </c>
+      <c r="C11">
+        <v>0.08029191447436972</v>
+      </c>
+      <c r="D11">
+        <v>0.06537934064180427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0005987433772348663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.00433606901793405</v>
+      </c>
+      <c r="C12">
+        <v>0.06534801975976513</v>
+      </c>
+      <c r="D12">
+        <v>0.04945729685766492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00213068310772677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008668847256103604</v>
+      </c>
+      <c r="C13">
+        <v>0.0711443122369623</v>
+      </c>
+      <c r="D13">
+        <v>0.05770726283935607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002017653725310756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0004594347066208492</v>
+      </c>
+      <c r="C14">
+        <v>0.04299626095675468</v>
+      </c>
+      <c r="D14">
+        <v>0.01236085423487415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00101828683025494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005519821693780619</v>
+      </c>
+      <c r="C15">
+        <v>0.04069240430876106</v>
+      </c>
+      <c r="D15">
+        <v>0.02945283004643896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>8.599544847457282e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005079962914872398</v>
+      </c>
+      <c r="C16">
+        <v>0.06505007456375535</v>
+      </c>
+      <c r="D16">
+        <v>0.05698824467584029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002199736995023129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008432809585277852</v>
+      </c>
+      <c r="C20">
+        <v>0.06421376425613169</v>
+      </c>
+      <c r="D20">
+        <v>0.05269844059045736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005051197209505852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00897606259921763</v>
+      </c>
+      <c r="C21">
+        <v>0.02004605864705783</v>
+      </c>
+      <c r="D21">
+        <v>0.04057789474458489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02017758456179795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007796632744308311</v>
+      </c>
+      <c r="C22">
+        <v>0.08721692690832206</v>
+      </c>
+      <c r="D22">
+        <v>0.1231865070482013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0198208848151125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007487988451754464</v>
+      </c>
+      <c r="C23">
+        <v>0.08760162202384385</v>
+      </c>
+      <c r="D23">
+        <v>0.1242949691143704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001535456307811623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005579160113350697</v>
+      </c>
+      <c r="C24">
+        <v>0.0772309281745704</v>
+      </c>
+      <c r="D24">
+        <v>0.06719826959351952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003199101298112608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002983420390355074</v>
+      </c>
+      <c r="C25">
+        <v>0.07851728894917449</v>
+      </c>
+      <c r="D25">
+        <v>0.06528224008374577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001807057862250827</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003188521162041733</v>
+      </c>
+      <c r="C26">
+        <v>0.03898014262613599</v>
+      </c>
+      <c r="D26">
+        <v>0.02406441849676944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006639362569761335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00220407650883688</v>
+      </c>
+      <c r="C28">
+        <v>0.1029401240482844</v>
+      </c>
+      <c r="D28">
+        <v>-0.3260234499606154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001115446136452692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.00277216556728325</v>
+      </c>
+      <c r="C29">
+        <v>0.04724516142935863</v>
+      </c>
+      <c r="D29">
+        <v>0.01228313006512295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003093760670760971</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008793134794344635</v>
+      </c>
+      <c r="C30">
+        <v>0.1414330705732358</v>
+      </c>
+      <c r="D30">
+        <v>0.1091650536341811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002094981774257175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006202253765911529</v>
+      </c>
+      <c r="C31">
+        <v>0.04366259715869662</v>
+      </c>
+      <c r="D31">
+        <v>0.0325523422660011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004288697337516918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004007526025669967</v>
+      </c>
+      <c r="C32">
+        <v>0.03983205213811294</v>
+      </c>
+      <c r="D32">
+        <v>0.02038839094439409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>7.036944646954318e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008515646507414256</v>
+      </c>
+      <c r="C33">
+        <v>0.09018874998758702</v>
+      </c>
+      <c r="D33">
+        <v>0.06416675757899859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00178860858507016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003809195812110441</v>
+      </c>
+      <c r="C34">
+        <v>0.05802847719384038</v>
+      </c>
+      <c r="D34">
+        <v>0.05877789513438798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002048167562382672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005136123016314879</v>
+      </c>
+      <c r="C35">
+        <v>0.04049480068289629</v>
+      </c>
+      <c r="D35">
+        <v>0.01639369478289153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004585321348881467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001576735070065917</v>
+      </c>
+      <c r="C36">
+        <v>0.02522281575712356</v>
+      </c>
+      <c r="D36">
+        <v>0.02447405589923798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002749901048010892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008951541094333691</v>
+      </c>
+      <c r="C38">
+        <v>0.04115418268367137</v>
+      </c>
+      <c r="D38">
+        <v>0.01139533784614165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01132304140076675</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.002190600670655112</v>
+      </c>
+      <c r="C39">
+        <v>0.1116443318568836</v>
+      </c>
+      <c r="D39">
+        <v>0.08064140895201402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003922954519614528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002551293379926651</v>
+      </c>
+      <c r="C40">
+        <v>0.09124730204160299</v>
+      </c>
+      <c r="D40">
+        <v>0.01657214993380555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002420504164758115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00740482066713823</v>
+      </c>
+      <c r="C41">
+        <v>0.04134505610658733</v>
+      </c>
+      <c r="D41">
+        <v>0.04106189068129324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001681818112880986</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003812568181302904</v>
+      </c>
+      <c r="C43">
+        <v>0.05405716252952694</v>
+      </c>
+      <c r="D43">
+        <v>0.02908140091150919</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00741453795292402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002145639390328382</v>
+      </c>
+      <c r="C44">
+        <v>0.1051533274619704</v>
+      </c>
+      <c r="D44">
+        <v>0.06928249169512496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001365007222704535</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001403030305661283</v>
+      </c>
+      <c r="C46">
+        <v>0.03279467433020355</v>
+      </c>
+      <c r="D46">
+        <v>0.03386211415651992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0004285637926630578</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002562907374202676</v>
+      </c>
+      <c r="C47">
+        <v>0.03581047100032079</v>
+      </c>
+      <c r="D47">
+        <v>0.02263694510875343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004380686511315402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007138419797692155</v>
+      </c>
+      <c r="C48">
+        <v>0.03325547892525267</v>
+      </c>
+      <c r="D48">
+        <v>0.03398732135291925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.003884934170964877</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01636707217362977</v>
+      </c>
+      <c r="C49">
+        <v>0.1859853297092075</v>
+      </c>
+      <c r="D49">
+        <v>0.007771375182790943</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009525705715990592</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00347996725009139</v>
+      </c>
+      <c r="C50">
+        <v>0.04332707309086309</v>
+      </c>
+      <c r="D50">
+        <v>0.04050981822547491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-3.702756489694465e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004008323705649247</v>
+      </c>
+      <c r="C51">
+        <v>0.02670648913487609</v>
+      </c>
+      <c r="D51">
+        <v>0.02294658795126686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008459773190131274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02151816290997946</v>
+      </c>
+      <c r="C53">
+        <v>0.171846647419183</v>
+      </c>
+      <c r="D53">
+        <v>0.01863912664718636</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003799047584252342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009406188476175584</v>
+      </c>
+      <c r="C54">
+        <v>0.0568887802706923</v>
+      </c>
+      <c r="D54">
+        <v>0.04206937234667901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001733417988714361</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009962230556274534</v>
+      </c>
+      <c r="C55">
+        <v>0.1087718410725263</v>
+      </c>
+      <c r="D55">
+        <v>0.03610192361541737</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.008740514004032909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0206529974322006</v>
+      </c>
+      <c r="C56">
+        <v>0.1744732115847883</v>
+      </c>
+      <c r="D56">
+        <v>0.01421747386014086</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003751074157923811</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01873391673111301</v>
+      </c>
+      <c r="C58">
+        <v>0.1067119965102699</v>
+      </c>
+      <c r="D58">
+        <v>0.06584123731473027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002407327527056299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009598679492068293</v>
+      </c>
+      <c r="C59">
+        <v>0.1679570788499414</v>
+      </c>
+      <c r="D59">
+        <v>-0.3462306095775405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.007709117914253923</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02506197823513249</v>
+      </c>
+      <c r="C60">
+        <v>0.2238035649817363</v>
+      </c>
+      <c r="D60">
+        <v>0.01630688066510877</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01031861707105175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002238334984436441</v>
+      </c>
+      <c r="C61">
+        <v>0.09388878750852973</v>
+      </c>
+      <c r="D61">
+        <v>0.05940188589140584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.149100865131932</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1516156985383478</v>
+      </c>
+      <c r="C62">
+        <v>0.1020224425939821</v>
+      </c>
+      <c r="D62">
+        <v>0.01858813910528256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001492212392416865</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006484091748562364</v>
+      </c>
+      <c r="C63">
+        <v>0.05368500338357433</v>
+      </c>
+      <c r="D63">
+        <v>0.03362328033973935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.009693029250572026</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01650330200047274</v>
+      </c>
+      <c r="C64">
+        <v>0.1063182086149285</v>
+      </c>
+      <c r="D64">
+        <v>0.05527257323519323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00868471307869571</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01766196832564255</v>
+      </c>
+      <c r="C65">
+        <v>0.1206287483684639</v>
+      </c>
+      <c r="D65">
+        <v>0.02768546923815417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001274501224095683</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01257722480905798</v>
+      </c>
+      <c r="C66">
+        <v>0.1595002103005838</v>
+      </c>
+      <c r="D66">
+        <v>0.1134172477151672</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005862978598566525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01526948451641583</v>
+      </c>
+      <c r="C67">
+        <v>0.07359376904602875</v>
+      </c>
+      <c r="D67">
+        <v>0.02131210175337204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004354563604986579</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.000203945134825124</v>
+      </c>
+      <c r="C68">
+        <v>0.08459867476977358</v>
+      </c>
+      <c r="D68">
+        <v>-0.2585235550774074</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001366811778902532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006521104796123059</v>
+      </c>
+      <c r="C69">
+        <v>0.05304470379411604</v>
+      </c>
+      <c r="D69">
+        <v>0.03723114574876956</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001285704889569014</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002479592165353971</v>
+      </c>
+      <c r="C70">
+        <v>0.00841749573435188</v>
+      </c>
+      <c r="D70">
+        <v>-0.001089142127322688</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002133258963163169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004574129551562261</v>
+      </c>
+      <c r="C71">
+        <v>0.08912583129362503</v>
+      </c>
+      <c r="D71">
+        <v>-0.3018990593502672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004483683598344477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01763684384028618</v>
+      </c>
+      <c r="C72">
+        <v>0.1585499080968036</v>
+      </c>
+      <c r="D72">
+        <v>0.006991820270550797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01010671305208063</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03113069965685338</v>
+      </c>
+      <c r="C73">
+        <v>0.281087613230209</v>
+      </c>
+      <c r="D73">
+        <v>0.05101451643150563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005346351277961831</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001998363329571693</v>
+      </c>
+      <c r="C74">
+        <v>0.1027969482961079</v>
+      </c>
+      <c r="D74">
+        <v>0.03347927035425586</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0004697787412506195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01131308436949664</v>
+      </c>
+      <c r="C75">
+        <v>0.1210139972967133</v>
+      </c>
+      <c r="D75">
+        <v>0.02754465634332039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0110389564804435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02179514623464305</v>
+      </c>
+      <c r="C76">
+        <v>0.1463001915911133</v>
+      </c>
+      <c r="D76">
+        <v>0.05743674167566496</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007453165129478586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02078090199999347</v>
+      </c>
+      <c r="C77">
+        <v>0.1105116497905891</v>
+      </c>
+      <c r="D77">
+        <v>0.05473451852109081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005522735152661987</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01408865977453236</v>
+      </c>
+      <c r="C78">
+        <v>0.09939015563692111</v>
+      </c>
+      <c r="D78">
+        <v>0.08218413829112634</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02752257857875413</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03887650776932856</v>
+      </c>
+      <c r="C79">
+        <v>0.1578855778713352</v>
+      </c>
+      <c r="D79">
+        <v>0.03025989837766051</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006358173230173223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009374089672915928</v>
+      </c>
+      <c r="C80">
+        <v>0.03998593336310081</v>
+      </c>
+      <c r="D80">
+        <v>0.03108077672366397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004813837565008001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01577906805417254</v>
+      </c>
+      <c r="C81">
+        <v>0.1307541883392085</v>
+      </c>
+      <c r="D81">
+        <v>0.03776753531348883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007644451251461771</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01920297098778076</v>
+      </c>
+      <c r="C82">
+        <v>0.1365965236235565</v>
+      </c>
+      <c r="D82">
+        <v>0.0368376792268153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004188939150202198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0122131221731456</v>
+      </c>
+      <c r="C83">
+        <v>0.06468904851182024</v>
+      </c>
+      <c r="D83">
+        <v>0.04480201137981064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004160951784891215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.00624548871776716</v>
+      </c>
+      <c r="C84">
+        <v>0.03427397907946119</v>
+      </c>
+      <c r="D84">
+        <v>0.0116606672936874</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01842548576039694</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02890716988164123</v>
+      </c>
+      <c r="C85">
+        <v>0.1235877563869094</v>
+      </c>
+      <c r="D85">
+        <v>0.03888819665361547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002745084349026471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003794626257150414</v>
+      </c>
+      <c r="C86">
+        <v>0.05079896355677273</v>
+      </c>
+      <c r="D86">
+        <v>0.02693939204970912</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0008409204292522993</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01092248255973123</v>
+      </c>
+      <c r="C87">
+        <v>0.1286671788752135</v>
+      </c>
+      <c r="D87">
+        <v>0.07456037908806695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009071958807233186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003280565938444686</v>
+      </c>
+      <c r="C88">
+        <v>0.06340633465781743</v>
+      </c>
+      <c r="D88">
+        <v>0.03069202489862984</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01140333263730545</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003134204206241718</v>
+      </c>
+      <c r="C89">
+        <v>0.1346160461000635</v>
+      </c>
+      <c r="D89">
+        <v>-0.3140066863810704</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00177964453386681</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00560637350546716</v>
+      </c>
+      <c r="C90">
+        <v>0.1162720434282739</v>
+      </c>
+      <c r="D90">
+        <v>-0.3122031808613268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002201589753787669</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01082234450775672</v>
+      </c>
+      <c r="C91">
+        <v>0.09984633173885737</v>
+      </c>
+      <c r="D91">
+        <v>0.02792945645793835</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005049461078581087</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>5.720317721938434e-05</v>
+      </c>
+      <c r="C92">
+        <v>0.1292634908578052</v>
+      </c>
+      <c r="D92">
+        <v>-0.3268135987128297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001936993909828532</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003250668692040679</v>
+      </c>
+      <c r="C93">
+        <v>0.1039335154297097</v>
+      </c>
+      <c r="D93">
+        <v>-0.3006590191920041</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01005925742900479</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02174195991112734</v>
+      </c>
+      <c r="C94">
+        <v>0.1411464602814069</v>
+      </c>
+      <c r="D94">
+        <v>0.05396485126898168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006140001820980825</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01541714023987047</v>
+      </c>
+      <c r="C95">
+        <v>0.1204523113668762</v>
+      </c>
+      <c r="D95">
+        <v>0.06617546080084104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01692110278579246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03736248035666223</v>
+      </c>
+      <c r="C97">
+        <v>0.2253844631658363</v>
+      </c>
+      <c r="D97">
+        <v>-0.001805101489912596</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01202637511347436</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03876754043755789</v>
+      </c>
+      <c r="C98">
+        <v>0.2613070914219613</v>
+      </c>
+      <c r="D98">
+        <v>0.02612352138102055</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9866667828955491</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.98105242903393</v>
+      </c>
+      <c r="C99">
+        <v>-0.1190191656376054</v>
+      </c>
+      <c r="D99">
+        <v>-0.02391031827887044</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001144101278116698</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002752253681970622</v>
+      </c>
+      <c r="C101">
+        <v>0.04735969357444613</v>
+      </c>
+      <c r="D101">
+        <v>0.01276583952590463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
